--- a/Reports/AreDifferent/decryption_coldWater/decryption_coldWater_.xlsx
+++ b/Reports/AreDifferent/decryption_coldWater/decryption_coldWater_.xlsx
@@ -738,8 +738,8 @@
   </sheetPr>
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,6 +1153,9 @@
       <c r="W10" s="34" t="s">
         <v>20</v>
       </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:24">
       <c r="O11" s="7" t="s">
